--- a/tests/test_inputs/pears/Quarterly_Effort_Export.xlsx
+++ b/tests/test_inputs/pears/Quarterly_Effort_Export.xlsx
@@ -26,7 +26,7 @@
     <t>Exported by</t>
   </si>
   <si>
-    <t>Nightly Export User (Don't Edit!) on 10/14/2022 at 03:07:57 AM</t>
+    <t>Nightly Export User (Don't Edit!) on 10/17/2022 at 03:07:15 AM</t>
   </si>
   <si>
     <t>Filters</t>
@@ -35,7 +35,7 @@
     <t>Organization = University of Illinois Extension</t>
   </si>
   <si>
-    <t>reporting_periods = SNAP-Ed 2022 (October 1, 2021 - September 30, 2022)</t>
+    <t>reporting_periods = Extension 2023 (October 1, 2022 - September 30, 2023), SNAP-Ed 2023 (October 1, 2022 - September 30, 2023)</t>
   </si>
   <si>
     <t>Field</t>
